--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -147,10 +147,6 @@
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.  
 医療の提供に直接または間接的に関与する者をいう。</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -2078,16 +2074,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -2095,10 +2091,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2109,28 +2105,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2180,13 +2176,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2209,10 +2205,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2223,25 +2219,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2292,19 +2288,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2321,10 +2317,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2335,28 +2331,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2406,19 +2402,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2435,10 +2431,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2449,7 +2445,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2461,16 +2457,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2496,43 +2492,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2549,21 +2545,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2575,16 +2571,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2634,25 +2630,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2663,14 +2659,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2689,16 +2685,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2748,7 +2744,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2766,7 +2762,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2777,14 +2773,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2803,16 +2799,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2862,7 +2858,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2874,13 +2870,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2891,14 +2887,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2911,25 +2907,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2978,7 +2974,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2990,13 +2986,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -3007,10 +3003,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3030,22 +3026,22 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -3094,7 +3090,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3106,27 +3102,27 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3137,114 +3133,114 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="O11" t="s" s="2">
+      <c r="P11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q11" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="P11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q11" t="s" s="2">
+      <c r="R11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="R11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3267,19 +3263,19 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -3328,7 +3324,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3337,19 +3333,19 @@
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>38</v>
@@ -3357,10 +3353,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3380,22 +3376,22 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3444,7 +3440,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3456,16 +3452,16 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>38</v>
@@ -3473,10 +3469,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3487,7 +3483,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3499,13 +3495,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3556,25 +3552,25 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3585,14 +3581,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3611,16 +3607,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3658,19 +3654,19 @@
         <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AD15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3682,13 +3678,13 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
@@ -3699,10 +3695,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3713,28 +3709,28 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3760,52 +3756,52 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI16" t="s" s="2">
+      <c r="AJ16" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>38</v>
@@ -3813,10 +3809,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3827,31 +3823,31 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3900,28 +3896,28 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>38</v>
@@ -3929,10 +3925,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3943,31 +3939,31 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3992,52 +3988,52 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Z18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -4045,10 +4041,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4059,28 +4055,28 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4130,25 +4126,25 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
@@ -4159,10 +4155,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4173,28 +4169,28 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4244,28 +4240,28 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -4273,10 +4269,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4296,22 +4292,22 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4360,7 +4356,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4372,16 +4368,16 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -4389,10 +4385,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4403,7 +4399,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4415,13 +4411,13 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4472,25 +4468,25 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -4501,14 +4497,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4527,16 +4523,16 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4574,19 +4570,19 @@
         <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4598,13 +4594,13 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4615,10 +4611,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4629,31 +4625,31 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4678,52 +4674,52 @@
         <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AA24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF24" t="s" s="2">
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>38</v>
@@ -4731,10 +4727,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4745,28 +4741,28 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4792,49 +4788,49 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AL25" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4845,10 +4841,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4859,31 +4855,31 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K26" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4932,25 +4928,25 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4961,10 +4957,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4984,19 +4980,19 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5046,7 +5042,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5058,16 +5054,16 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -5075,42 +5071,42 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5160,28 +5156,28 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -5189,42 +5185,42 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5274,25 +5270,25 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -5303,42 +5299,42 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5388,28 +5384,28 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -5417,42 +5413,42 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5502,28 +5498,28 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -5531,10 +5527,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5545,28 +5541,28 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5616,28 +5612,28 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5645,10 +5641,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5659,31 +5655,31 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5732,28 +5728,28 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AL33" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>38</v>
@@ -5761,10 +5757,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5775,29 +5771,29 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5822,52 +5818,52 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Z34" t="s" s="2">
+      <c r="AA34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AA34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5875,10 +5871,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5889,29 +5885,29 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5960,28 +5956,28 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>
@@ -5989,10 +5985,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6015,19 +6011,19 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -6076,7 +6072,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6088,16 +6084,16 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -6105,10 +6101,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6131,16 +6127,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6178,17 +6174,17 @@
         <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6200,16 +6196,16 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6217,10 +6213,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6231,7 +6227,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6243,13 +6239,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6300,25 +6296,25 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6329,14 +6325,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6355,16 +6351,16 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6414,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6426,13 +6422,13 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
@@ -6443,14 +6439,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6463,25 +6459,25 @@
         <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6530,7 +6526,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6542,13 +6538,13 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
@@ -6559,10 +6555,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6585,19 +6581,19 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6646,7 +6642,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6658,13 +6654,13 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6675,10 +6671,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6686,10 +6682,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6701,16 +6697,16 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6736,52 +6732,52 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y42" t="s" s="2">
+      <c r="Z42" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z42" t="s" s="2">
+      <c r="AA42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6789,10 +6785,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6803,7 +6799,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6815,19 +6811,19 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6876,28 +6872,28 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>38</v>
@@ -6905,10 +6901,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6919,7 +6915,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6931,16 +6927,16 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6990,25 +6986,25 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -7019,13 +7015,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>38</v>
@@ -7035,25 +7031,25 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7104,7 +7100,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7116,16 +7112,16 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -7133,10 +7129,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7147,7 +7143,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7159,13 +7155,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7216,25 +7212,25 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7245,14 +7241,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7271,16 +7267,16 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7330,7 +7326,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7342,13 +7338,13 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7359,14 +7355,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7379,25 +7375,25 @@
         <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7446,7 +7442,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7458,13 +7454,13 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7475,10 +7471,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7501,17 +7497,17 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7560,7 +7556,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7572,13 +7568,13 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7589,10 +7585,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7603,7 +7599,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7615,13 +7611,13 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7672,25 +7668,25 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
@@ -7701,14 +7697,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7727,16 +7723,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7774,19 +7770,19 @@
         <v>38</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7798,13 +7794,13 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
@@ -7815,10 +7811,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7829,31 +7825,31 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7878,49 +7874,49 @@
         <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Z52" t="s" s="2">
+      <c r="AA52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AA52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF52" t="s" s="2">
+      <c r="AG52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
@@ -7931,10 +7927,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7945,31 +7941,31 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J53" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7994,49 +7990,49 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="Z53" t="s" s="2">
+      <c r="AA53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AA53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF53" t="s" s="2">
+      <c r="AG53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="AL53" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -8047,10 +8043,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8061,31 +8057,31 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K54" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8134,28 +8130,28 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -8163,10 +8159,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8177,28 +8173,28 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J55" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K55" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8248,28 +8244,28 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="AM55" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -8277,10 +8273,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8291,25 +8287,25 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J56" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K56" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8360,28 +8356,28 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AM56" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>38</v>
@@ -8389,10 +8385,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8403,28 +8399,28 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K57" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8474,28 +8470,28 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>38</v>
@@ -8503,10 +8499,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8514,10 +8510,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8529,13 +8525,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="M58" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8547,7 +8543,7 @@
         <v>38</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>38</v>
@@ -8562,11 +8558,11 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8584,28 +8580,28 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>38</v>
@@ -8613,10 +8609,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8627,7 +8623,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8639,17 +8635,17 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8698,28 +8694,28 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8727,10 +8723,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8741,7 +8737,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8753,13 +8749,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8810,25 +8806,25 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
@@ -8839,13 +8835,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>38</v>
@@ -8855,7 +8851,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8867,13 +8863,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8924,7 +8920,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8936,16 +8932,16 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8953,10 +8949,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8967,7 +8963,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -8979,13 +8975,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9036,25 +9032,25 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
@@ -9065,14 +9061,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9091,16 +9087,16 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9150,7 +9146,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9162,13 +9158,13 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -9179,14 +9175,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9199,25 +9195,25 @@
         <v>38</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="N64" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
@@ -9266,7 +9262,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9278,13 +9274,13 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
@@ -9295,10 +9291,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9321,17 +9317,17 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9380,7 +9376,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9392,13 +9388,13 @@
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>
@@ -9409,10 +9405,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9423,7 +9419,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9435,13 +9431,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9492,25 +9488,25 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>38</v>
@@ -9521,14 +9517,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9547,16 +9543,16 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9594,19 +9590,19 @@
         <v>38</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9618,13 +9614,13 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
@@ -9635,10 +9631,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9649,31 +9645,31 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -9698,49 +9694,49 @@
         <v>38</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Z68" t="s" s="2">
+      <c r="AA68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AA68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF68" t="s" s="2">
+      <c r="AG68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
@@ -9751,10 +9747,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9765,31 +9761,31 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J69" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K69" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -9814,49 +9810,49 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="Z69" t="s" s="2">
+      <c r="AA69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AA69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF69" t="s" s="2">
+      <c r="AG69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="AL69" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
@@ -9867,10 +9863,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9881,38 +9877,38 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K70" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="N70" t="s" s="2">
-        <v>467</v>
-      </c>
       <c r="O70" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>38</v>
@@ -9954,28 +9950,28 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AG70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>38</v>
@@ -9983,10 +9979,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9997,28 +9993,28 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J71" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K71" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10068,28 +10064,28 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AG71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AL71" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="AM71" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>38</v>
@@ -10097,10 +10093,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10111,25 +10107,25 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J72" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K72" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10180,28 +10176,28 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AG72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AM72" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>38</v>
@@ -10209,10 +10205,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10223,28 +10219,28 @@
         <v>39</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J73" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K73" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10294,28 +10290,28 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AG73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK73" t="s" s="2">
+      <c r="AL73" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>38</v>
@@ -10323,10 +10319,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10334,10 +10330,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>38</v>
@@ -10349,13 +10345,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10367,7 +10363,7 @@
         <v>38</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>38</v>
@@ -10382,11 +10378,11 @@
         <v>38</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>38</v>
@@ -10404,28 +10400,28 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>38</v>
@@ -10433,10 +10429,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10447,7 +10443,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -10459,17 +10455,17 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -10518,28 +10514,28 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>38</v>
@@ -10547,10 +10543,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10561,7 +10557,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>38</v>
@@ -10573,13 +10569,13 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10630,25 +10626,25 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>38</v>
@@ -10659,10 +10655,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10685,19 +10681,19 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -10722,14 +10718,14 @@
         <v>38</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Y77" t="s" s="2">
+      <c r="Z77" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AA77" t="s" s="2">
         <v>38</v>
       </c>
@@ -10746,7 +10742,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10758,16 +10754,16 @@
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>38</v>
